--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2437.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2437.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.01769026016322</v>
+        <v>2.154094457626343</v>
       </c>
       <c r="B1">
-        <v>2.076338048209298</v>
+        <v>2.639034509658813</v>
       </c>
       <c r="C1">
-        <v>8.957944624329453</v>
+        <v>2.801393270492554</v>
       </c>
       <c r="D1">
-        <v>2.553899043997636</v>
+        <v>3.401887893676758</v>
       </c>
       <c r="E1">
-        <v>0.9946092248865889</v>
+        <v>2.042211771011353</v>
       </c>
     </row>
   </sheetData>
